--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1296733.01913603</v>
+        <v>1360700.396968411</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18142616.70954774</v>
+        <v>16659530.99074004</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2060125.517083134</v>
+        <v>606553.2040797154</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6263031.024545601</v>
+        <v>6741478.761121088</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
@@ -665,19 +667,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>219.1106045216095</v>
+        <v>293.6956052308008</v>
       </c>
     </row>
     <row r="3">
@@ -829,13 +831,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>158.3040288668727</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -874,13 +876,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>227.7248168572581</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>335.4789331224958</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>95.2703758020409</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +949,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -1105,13 +1107,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>131.996999652747</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>172.6623007436909</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1133,16 +1135,16 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>362.0169156563304</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>136.6363841202695</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -1151,7 +1153,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,13 +1189,13 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
         <v>14.9510387864824</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
@@ -1300,10 +1302,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>141.703455210081</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -1339,13 +1341,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>46.2253027104011</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>9.180779608842419</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1388,7 +1390,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>206.7876113208424</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1576,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1607,25 +1609,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>164.3911011219629</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1660,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>92.21956428898076</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1780,10 +1782,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>129.7139627068455</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>219.9969554588831</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1825,13 +1827,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1861,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -2017,10 +2019,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>240.273786227905</v>
       </c>
       <c r="U19" t="n">
-        <v>67.42894579208244</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2096,7 +2098,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I20" t="n">
         <v>0.4126214791313976</v>
@@ -2135,7 +2137,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561544</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2254,7 +2256,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
-        <v>187.0595157663141</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2302,7 +2304,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2473,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
@@ -2491,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>61.43755362246745</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2722,10 +2724,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>14.14416275345333</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2950,7 +2952,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>59.41244209702454</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
@@ -3001,10 +3003,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>131.9969996527475</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3202,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3244,10 +3246,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>166.3197703738382</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
@@ -3424,25 +3426,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>126.7641785672301</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3569,7 +3571,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633446</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3661,13 +3663,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>60.80118788412695</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>2.29236380551803</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
@@ -3679,7 +3681,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
@@ -3727,7 +3729,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>320.3188320430835</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3758,7 +3760,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>145.8387674910519</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
@@ -3910,13 +3912,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225757</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>210.1841236695492</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
@@ -3974,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>11.70291171695784</v>
       </c>
       <c r="G44" t="n">
-        <v>352.2603910345843</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
@@ -4037,7 +4039,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
@@ -4144,10 +4146,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>138.5031525665292</v>
@@ -4195,13 +4197,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>125.1716544454848</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>176.9484966573165</v>
       </c>
     </row>
   </sheetData>
@@ -4304,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>978.3722678587819</v>
+        <v>2076.000019869234</v>
       </c>
       <c r="C2" t="n">
-        <v>944.2701990826092</v>
+        <v>2041.897951093061</v>
       </c>
       <c r="D2" t="n">
-        <v>508.3604142570537</v>
+        <v>1605.988166267505</v>
       </c>
       <c r="E2" t="n">
-        <v>478.6260734557529</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F2" t="n">
-        <v>454.7990479053647</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G2" t="n">
-        <v>53.40121652862856</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H2" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I2" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L2" t="n">
-        <v>714.2412710704069</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M2" t="n">
-        <v>1375.081325612185</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N2" t="n">
-        <v>2035.921380153963</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O2" t="n">
-        <v>2670.060826431428</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>2670.060826431428</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
         <v>2670.060826431428</v>
@@ -4358,22 +4360,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2449.993599304466</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U2" t="n">
-        <v>2449.993599304466</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V2" t="n">
-        <v>2449.993599304466</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="W2" t="n">
-        <v>2045.1381447155</v>
+        <v>2410.023473199882</v>
       </c>
       <c r="X2" t="n">
-        <v>1625.99568129481</v>
+        <v>2394.921413819597</v>
       </c>
       <c r="Y2" t="n">
-        <v>1404.67183834369</v>
+        <v>2098.259186313737</v>
       </c>
     </row>
     <row r="3">
@@ -4407,7 +4409,7 @@
         <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>404.0232146552985</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="K3" t="n">
         <v>1058.729261281022</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1043.799427915185</v>
+        <v>986.8689873181997</v>
       </c>
       <c r="C4" t="n">
-        <v>871.2377163984103</v>
+        <v>814.3072758014247</v>
       </c>
       <c r="D4" t="n">
-        <v>705.359723599933</v>
+        <v>648.4292830029474</v>
       </c>
       <c r="E4" t="n">
-        <v>535.6017198506702</v>
+        <v>478.6712792536846</v>
       </c>
       <c r="F4" t="n">
-        <v>358.8946658124264</v>
+        <v>301.9642252154408</v>
       </c>
       <c r="G4" t="n">
-        <v>193.303390838254</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H4" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
         <v>53.40121652862856</v>
@@ -4522,16 +4524,16 @@
         <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>1965.089189266357</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W4" t="n">
-        <v>1693.062784852648</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X4" t="n">
-        <v>1463.037717320064</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="Y4" t="n">
-        <v>1235.618046634173</v>
+        <v>1178.687606037187</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>173.3508218145016</v>
+        <v>1735.906148501163</v>
       </c>
       <c r="C5" t="n">
-        <v>139.2487530383289</v>
+        <v>1701.80407972499</v>
       </c>
       <c r="D5" t="n">
-        <v>107.3793722531775</v>
+        <v>1605.571376894645</v>
       </c>
       <c r="E5" t="n">
-        <v>77.64503145187676</v>
+        <v>1171.796632052941</v>
       </c>
       <c r="F5" t="n">
-        <v>53.81800590148855</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G5" t="n">
-        <v>53.81800590148855</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H5" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
         <v>53.40121652862856</v>
@@ -4568,16 +4570,16 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
         <v>1293.567921177998</v>
@@ -4595,22 +4597,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>2366.341725488303</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U5" t="n">
-        <v>2107.11942280532</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V5" t="n">
-        <v>1744.502472739146</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="W5" t="n">
-        <v>1339.64701815018</v>
+        <v>2585.593902066702</v>
       </c>
       <c r="X5" t="n">
-        <v>920.5045547294905</v>
+        <v>2570.491842686417</v>
       </c>
       <c r="Y5" t="n">
-        <v>512.2184310291439</v>
+        <v>2162.20571898607</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>559.5729615199214</v>
+        <v>1512.992809943912</v>
       </c>
       <c r="C6" t="n">
-        <v>453.1165003565636</v>
+        <v>1406.536348780554</v>
       </c>
       <c r="D6" t="n">
-        <v>358.0262115031169</v>
+        <v>1311.446059927107</v>
       </c>
       <c r="E6" t="n">
-        <v>263.9057968300706</v>
+        <v>1217.325645254061</v>
       </c>
       <c r="F6" t="n">
-        <v>180.5219584462322</v>
+        <v>1133.941806870223</v>
       </c>
       <c r="G6" t="n">
-        <v>95.13686871241609</v>
+        <v>1048.556717136407</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862856</v>
+        <v>1006.821064952619</v>
       </c>
       <c r="I6" t="n">
-        <v>53.40121652862856</v>
+        <v>1032.884738113077</v>
       </c>
       <c r="J6" t="n">
-        <v>53.40121652862856</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="K6" t="n">
-        <v>53.40121652862856</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="L6" t="n">
-        <v>714.2412710704069</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="M6" t="n">
-        <v>714.2412710704069</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="N6" t="n">
-        <v>714.2412710704069</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="O6" t="n">
-        <v>714.2412710704069</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="P6" t="n">
-        <v>1058.729261281022</v>
+        <v>2018.283117621067</v>
       </c>
       <c r="Q6" t="n">
-        <v>1599.468199913098</v>
+        <v>2552.888048337089</v>
       </c>
       <c r="R6" t="n">
-        <v>1716.640978007438</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S6" t="n">
-        <v>1653.185540455821</v>
+        <v>2606.605388879811</v>
       </c>
       <c r="T6" t="n">
-        <v>1523.006896786422</v>
+        <v>2476.426745210413</v>
       </c>
       <c r="U6" t="n">
-        <v>1346.67034978639</v>
+        <v>2300.090198210381</v>
       </c>
       <c r="V6" t="n">
-        <v>1147.55283184839</v>
+        <v>2100.97268027238</v>
       </c>
       <c r="W6" t="n">
-        <v>962.2300775815838</v>
+        <v>1915.649926005574</v>
       </c>
       <c r="X6" t="n">
-        <v>807.3626418204638</v>
+        <v>1760.782490244454</v>
       </c>
       <c r="Y6" t="n">
-        <v>680.8768625996845</v>
+        <v>1634.296711023675</v>
       </c>
     </row>
     <row r="7">
@@ -4723,19 +4725,19 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>139.9809016933184</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K7" t="n">
-        <v>414.739356264454</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L7" t="n">
-        <v>832.9492380324151</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M7" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O7" t="n">
         <v>2154.361157596754</v>
@@ -4750,13 +4752,13 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>2489.401636434797</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T7" t="n">
-        <v>2489.401636434797</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U7" t="n">
-        <v>2356.071333755254</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="V7" t="n">
         <v>2069.115825625685</v>
@@ -4778,46 +4780,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1381.691946481611</v>
+        <v>2407.571603271173</v>
       </c>
       <c r="C8" t="n">
-        <v>1347.589877705439</v>
+        <v>2041.897951093061</v>
       </c>
       <c r="D8" t="n">
-        <v>1315.720496920287</v>
+        <v>1605.988166267505</v>
       </c>
       <c r="E8" t="n">
-        <v>881.9457520785822</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F8" t="n">
-        <v>743.9292024621484</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>342.5313710854123</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>714.2412710704069</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M8" t="n">
-        <v>714.2412710704069</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
+        <v>1149.495958523325</v>
+      </c>
+      <c r="O8" t="n">
         <v>1293.567921177998</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1954.407975719776</v>
       </c>
       <c r="P8" t="n">
         <v>1954.407975719776</v>
@@ -4835,19 +4837,19 @@
         <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>2190.771296621483</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="V8" t="n">
-        <v>1828.15434655531</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="W8" t="n">
-        <v>1423.298891966343</v>
+        <v>2449.178548755904</v>
       </c>
       <c r="X8" t="n">
-        <v>1408.196832586058</v>
+        <v>2434.076489375619</v>
       </c>
       <c r="Y8" t="n">
-        <v>1403.951112926115</v>
+        <v>2429.830769715676</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4880,28 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>79.46488968908616</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J9" t="n">
-        <v>404.0232146552985</v>
+        <v>377.9595414948409</v>
       </c>
       <c r="K9" t="n">
-        <v>1058.729261281022</v>
+        <v>938.6281453713194</v>
       </c>
       <c r="L9" t="n">
-        <v>1058.729261281022</v>
+        <v>938.6281453713194</v>
       </c>
       <c r="M9" t="n">
-        <v>1058.729261281022</v>
+        <v>938.6281453713194</v>
       </c>
       <c r="N9" t="n">
-        <v>1058.729261281022</v>
+        <v>938.6281453713194</v>
       </c>
       <c r="O9" t="n">
-        <v>1058.729261281022</v>
+        <v>938.6281453713194</v>
       </c>
       <c r="P9" t="n">
-        <v>1058.729261281022</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4936,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>933.2958513705998</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>760.7341398538248</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>594.8561470553475</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>425.0981433060848</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>281.9633400635787</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
         <v>281.9633400635787</v>
@@ -4987,25 +4989,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2601.950780176799</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013252</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="U10" t="n">
-        <v>1965.089189266357</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1678.133681136788</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1406.107276723079</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1160.715522056492</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>933.2958513705998</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1619.705114763052</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C11" t="n">
-        <v>1619.705114763052</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D11" t="n">
-        <v>1183.795329937496</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E11" t="n">
-        <v>1174.52181518109</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F11" t="n">
-        <v>746.6543855902975</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G11" t="n">
-        <v>345.2565542135613</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H11" t="n">
-        <v>56.12639965677763</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I11" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J11" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="K11" t="n">
-        <v>750.6905954094008</v>
+        <v>928.1203912770317</v>
       </c>
       <c r="L11" t="n">
-        <v>1445.254791162024</v>
+        <v>1585.130376349478</v>
       </c>
       <c r="M11" t="n">
-        <v>1445.254791162024</v>
+        <v>1585.130376349478</v>
       </c>
       <c r="N11" t="n">
-        <v>1445.254791162024</v>
+        <v>2710.861359785925</v>
       </c>
       <c r="O11" t="n">
-        <v>1565.257001127664</v>
+        <v>3691.041026356231</v>
       </c>
       <c r="P11" t="n">
-        <v>2259.821196880287</v>
+        <v>4519.350901189628</v>
       </c>
       <c r="Q11" t="n">
-        <v>2806.319982838882</v>
+        <v>4519.350901189628</v>
       </c>
       <c r="R11" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S11" t="n">
-        <v>2806.319982838882</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T11" t="n">
-        <v>2806.319982838882</v>
+        <v>4395.976717054963</v>
       </c>
       <c r="U11" t="n">
-        <v>2806.319982838882</v>
+        <v>4136.75441437198</v>
       </c>
       <c r="V11" t="n">
-        <v>2443.703032772708</v>
+        <v>3774.137464305806</v>
       </c>
       <c r="W11" t="n">
-        <v>2038.847578183741</v>
+        <v>3774.137464305806</v>
       </c>
       <c r="X11" t="n">
-        <v>1619.705114763052</v>
+        <v>3354.995000885117</v>
       </c>
       <c r="Y11" t="n">
-        <v>1619.705114763052</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C12" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D12" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E12" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F12" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G12" t="n">
-        <v>97.86205184056516</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H12" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I12" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J12" t="n">
-        <v>380.68472462299</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="K12" t="n">
-        <v>380.68472462299</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="L12" t="n">
-        <v>380.68472462299</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="M12" t="n">
-        <v>380.68472462299</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="N12" t="n">
-        <v>380.68472462299</v>
+        <v>743.208250979361</v>
       </c>
       <c r="O12" t="n">
-        <v>380.68472462299</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="P12" t="n">
-        <v>1061.454444409171</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="Q12" t="n">
-        <v>1602.193383041247</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="R12" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S12" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T12" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U12" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V12" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W12" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X12" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y12" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>906.6224367337088</v>
+        <v>944.266136395785</v>
       </c>
       <c r="C13" t="n">
-        <v>734.0607252169337</v>
+        <v>771.7044248790099</v>
       </c>
       <c r="D13" t="n">
-        <v>568.1827324184565</v>
+        <v>605.8264320805326</v>
       </c>
       <c r="E13" t="n">
-        <v>398.4247286691938</v>
+        <v>436.0684283312698</v>
       </c>
       <c r="F13" t="n">
-        <v>221.71767463095</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G13" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H13" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I13" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J13" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K13" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L13" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M13" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N13" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O13" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P13" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q13" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R13" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S13" t="n">
-        <v>2654.546840516893</v>
+        <v>2692.190540178969</v>
       </c>
       <c r="T13" t="n">
-        <v>2408.667394095348</v>
+        <v>2446.311093757424</v>
       </c>
       <c r="U13" t="n">
-        <v>2130.234393348453</v>
+        <v>2167.878093010529</v>
       </c>
       <c r="V13" t="n">
-        <v>1843.278885218884</v>
+        <v>1880.92258488096</v>
       </c>
       <c r="W13" t="n">
-        <v>1571.252480805175</v>
+        <v>1608.896180467251</v>
       </c>
       <c r="X13" t="n">
-        <v>1325.860726138588</v>
+        <v>1363.504425800664</v>
       </c>
       <c r="Y13" t="n">
-        <v>1098.441055452696</v>
+        <v>1136.084755114772</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>222.1780169516896</v>
+        <v>2231.279152143079</v>
       </c>
       <c r="C14" t="n">
-        <v>222.1780169516896</v>
+        <v>1793.136679326502</v>
       </c>
       <c r="D14" t="n">
-        <v>222.1780169516896</v>
+        <v>1357.226894500947</v>
       </c>
       <c r="E14" t="n">
-        <v>56.12639965677763</v>
+        <v>923.452149659242</v>
       </c>
       <c r="F14" t="n">
-        <v>56.12639965677763</v>
+        <v>495.5847200684498</v>
       </c>
       <c r="G14" t="n">
-        <v>56.12639965677763</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="H14" t="n">
-        <v>56.12639965677763</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I14" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J14" t="n">
-        <v>491.3810871096955</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="K14" t="n">
-        <v>1185.945282862319</v>
+        <v>928.1203912770317</v>
       </c>
       <c r="L14" t="n">
-        <v>1185.945282862319</v>
+        <v>928.1203912770317</v>
       </c>
       <c r="M14" t="n">
-        <v>1185.945282862319</v>
+        <v>1207.78565514394</v>
       </c>
       <c r="N14" t="n">
-        <v>1185.945282862319</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="O14" t="n">
-        <v>1880.509478614942</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P14" t="n">
-        <v>2259.821196880287</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q14" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R14" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S14" t="n">
-        <v>2722.668109022718</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T14" t="n">
-        <v>2502.600881895757</v>
+        <v>4511.702017087146</v>
       </c>
       <c r="U14" t="n">
-        <v>2243.378579212774</v>
+        <v>4252.479714404163</v>
       </c>
       <c r="V14" t="n">
-        <v>1880.7616291466</v>
+        <v>3889.86276433799</v>
       </c>
       <c r="W14" t="n">
-        <v>1475.906174557633</v>
+        <v>3485.007309749023</v>
       </c>
       <c r="X14" t="n">
-        <v>1056.763711136944</v>
+        <v>3065.864846328333</v>
       </c>
       <c r="Y14" t="n">
-        <v>648.4775874365974</v>
+        <v>2657.578722627987</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C15" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D15" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E15" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F15" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G15" t="n">
-        <v>97.86205184056516</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H15" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I15" t="n">
-        <v>56.12639965677763</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J15" t="n">
-        <v>380.68472462299</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K15" t="n">
-        <v>380.68472462299</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L15" t="n">
-        <v>380.68472462299</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M15" t="n">
-        <v>380.68472462299</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N15" t="n">
-        <v>380.68472462299</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O15" t="n">
-        <v>484.0630267508877</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P15" t="n">
-        <v>1178.627222503511</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q15" t="n">
-        <v>1719.366161135586</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R15" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S15" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T15" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U15" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V15" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W15" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X15" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y15" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1037.646641488098</v>
+        <v>1032.92608562111</v>
       </c>
       <c r="C16" t="n">
-        <v>865.0849299713233</v>
+        <v>860.3643741043346</v>
       </c>
       <c r="D16" t="n">
-        <v>699.206937172846</v>
+        <v>694.4863813058573</v>
       </c>
       <c r="E16" t="n">
-        <v>529.4489334235832</v>
+        <v>524.7283775565945</v>
       </c>
       <c r="F16" t="n">
-        <v>352.7418793853394</v>
+        <v>348.0213235183507</v>
       </c>
       <c r="G16" t="n">
-        <v>187.1506044111671</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="H16" t="n">
-        <v>56.12639965677763</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="I16" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J16" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K16" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L16" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M16" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N16" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O16" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P16" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q16" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>2672.786009559577</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S16" t="n">
-        <v>2513.544640857574</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T16" t="n">
-        <v>2267.665194436029</v>
+        <v>2307.551372296857</v>
       </c>
       <c r="U16" t="n">
-        <v>1989.232193689134</v>
+        <v>2029.118371549962</v>
       </c>
       <c r="V16" t="n">
-        <v>1702.276685559565</v>
+        <v>1742.162863420393</v>
       </c>
       <c r="W16" t="n">
-        <v>1702.276685559565</v>
+        <v>1470.136459006684</v>
       </c>
       <c r="X16" t="n">
-        <v>1456.884930892977</v>
+        <v>1224.744704340097</v>
       </c>
       <c r="Y16" t="n">
-        <v>1229.465260207086</v>
+        <v>1224.744704340097</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5513,52 +5515,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>382.0682546095395</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1216.418546567717</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2291.478512820577</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2291.478512820577</v>
+        <v>3586.36356101008</v>
       </c>
       <c r="N17" t="n">
-        <v>3417.209496257024</v>
+        <v>3586.36356101008</v>
       </c>
       <c r="O17" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R17" t="n">
         <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1181.319000882661</v>
+        <v>3346.878440713113</v>
       </c>
       <c r="C19" t="n">
-        <v>1008.757289365886</v>
+        <v>3174.316729196338</v>
       </c>
       <c r="D19" t="n">
-        <v>842.8792965674086</v>
+        <v>3008.438736397861</v>
       </c>
       <c r="E19" t="n">
-        <v>673.1212928181459</v>
+        <v>2838.680732648598</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>2661.973678610354</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057298</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="I19" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J19" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K19" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L19" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M19" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N19" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O19" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>5091.624192244353</v>
       </c>
       <c r="S19" t="n">
-        <v>2718.920450173579</v>
+        <v>5091.624192244353</v>
       </c>
       <c r="T19" t="n">
-        <v>2473.041003752034</v>
+        <v>4848.923398074752</v>
       </c>
       <c r="U19" t="n">
-        <v>2404.930957497405</v>
+        <v>4570.490397327858</v>
       </c>
       <c r="V19" t="n">
-        <v>2117.975449367836</v>
+        <v>4283.534889198289</v>
       </c>
       <c r="W19" t="n">
-        <v>1845.949044954127</v>
+        <v>4011.50848478458</v>
       </c>
       <c r="X19" t="n">
-        <v>1600.55729028754</v>
+        <v>3766.116730117992</v>
       </c>
       <c r="Y19" t="n">
-        <v>1373.137619601648</v>
+        <v>3538.697059432101</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5750,28 +5752,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M20" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R20" t="n">
         <v>5113.042013538981</v>
@@ -5783,19 +5785,19 @@
         <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C21" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D21" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E21" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F21" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G21" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H21" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L21" t="n">
-        <v>751.6989919312866</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M21" t="n">
-        <v>751.6989919312866</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N21" t="n">
-        <v>751.6989919312866</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O21" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P21" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R21" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S21" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T21" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U21" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V21" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W21" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X21" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y21" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="22">
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
         <v>102.2608402707796</v>
@@ -5932,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2349.312254352388</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2070.879253605493</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1783.923745475924</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1511.897341062215</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1511.897341062215</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1284.477670376323</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5999,13 +6001,13 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>3135.398407382222</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>4115.578073952528</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q23" t="n">
         <v>4943.887948785924</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>982.1554751127505</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>982.1554751127505</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>816.2774823142732</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>646.5194785650106</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>469.8124245267668</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>304.2211495525945</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>164.318975242969</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="26">
@@ -6227,25 +6229,25 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>1694.563362934248</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>2820.294346370695</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C27" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D27" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E27" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F27" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G27" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H27" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M27" t="n">
-        <v>102.2608402707796</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N27" t="n">
-        <v>102.2608402707796</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O27" t="n">
-        <v>1116.062450089081</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P27" t="n">
-        <v>1224.761663117513</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R27" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S27" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T27" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U27" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V27" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W27" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X27" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y27" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="28">
@@ -6370,7 +6372,7 @@
         <v>282.1391483292483</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G28" t="n">
         <v>102.2608402707796</v>
@@ -6461,28 +6463,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L29" t="n">
-        <v>1177.320806523639</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="M29" t="n">
-        <v>2334.36864173419</v>
+        <v>2769.623329187108</v>
       </c>
       <c r="N29" t="n">
-        <v>3460.099625170637</v>
+        <v>3895.354312623555</v>
       </c>
       <c r="O29" t="n">
-        <v>4440.279291740943</v>
+        <v>4875.533979193861</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.042013538981</v>
+        <v>4875.533979193861</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6543,16 +6545,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="M30" t="n">
-        <v>751.6989919312866</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="N30" t="n">
-        <v>751.6989919312866</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O30" t="n">
         <v>1765.500601749588</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1068.769857140658</v>
+        <v>3575.440564248063</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>3402.878852731288</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>3237.000859932811</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>3067.242856183548</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>2890.535802145304</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>2724.944527171132</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>2585.042352861507</v>
       </c>
       <c r="I31" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J31" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K31" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L31" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M31" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N31" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O31" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P31" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q31" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>5091.624192244353</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>4932.38282354235</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>4932.38282354235</v>
       </c>
       <c r="U31" t="n">
-        <v>2292.381813755403</v>
+        <v>4799.052520862807</v>
       </c>
       <c r="V31" t="n">
-        <v>2005.426305625833</v>
+        <v>4512.097012733238</v>
       </c>
       <c r="W31" t="n">
-        <v>1733.399901212125</v>
+        <v>4240.070608319529</v>
       </c>
       <c r="X31" t="n">
-        <v>1488.008146545537</v>
+        <v>3994.678853652942</v>
       </c>
       <c r="Y31" t="n">
-        <v>1260.588475859645</v>
+        <v>3767.25918296705</v>
       </c>
     </row>
     <row r="32">
@@ -6698,19 +6700,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M32" t="n">
-        <v>2588.899621423627</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O32" t="n">
         <v>3569.079287993933</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C33" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D33" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E33" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F33" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G33" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H33" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K33" t="n">
-        <v>751.6989919312866</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L33" t="n">
-        <v>751.6989919312866</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M33" t="n">
-        <v>751.6989919312866</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N33" t="n">
-        <v>751.6989919312866</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R33" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S33" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T33" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U33" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V33" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W33" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X33" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y33" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3575.440564248063</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>3402.878852731288</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>3237.000859932811</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>3067.242856183548</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>2890.535802145304</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>2724.944527171132</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>2585.042352861507</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J34" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K34" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L34" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M34" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N34" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O34" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P34" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q34" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>5091.624192244353</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>4932.38282354235</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>4686.503377120805</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>4408.070376373911</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>4408.070376373911</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>4240.070608319529</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>3994.678853652942</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>3767.25918296705</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6938,16 +6940,16 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L35" t="n">
-        <v>1371.865819681875</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="M35" t="n">
-        <v>1463.16863798718</v>
+        <v>2769.623329187108</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="O35" t="n">
         <v>3569.079287993933</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C36" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D36" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E36" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F36" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G36" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H36" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="M36" t="n">
-        <v>1300.985674363279</v>
+        <v>4648.527086152673</v>
       </c>
       <c r="N36" t="n">
-        <v>1648.327823655249</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="O36" t="n">
-        <v>1648.327823655249</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P36" t="n">
-        <v>1648.327823655249</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q36" t="n">
-        <v>1648.327823655249</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R36" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S36" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T36" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U36" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V36" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W36" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X36" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y36" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="37">
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477108</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309357</v>
+        <v>662.2922315783794</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324584</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="38">
@@ -7160,13 +7162,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7181,43 +7183,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>3572.656769371182</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>4552.836435941488</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.38916282733</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7253,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>809.0580335016147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>809.0580335016147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>809.0580335016147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>809.0580335016147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>809.0580335016147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1628.781199980813</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
         <v>1648.327823655249</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>811.7546776883964</v>
+        <v>3411.878090445059</v>
       </c>
       <c r="C40" t="n">
-        <v>750.3393363912985</v>
+        <v>3239.316378928283</v>
       </c>
       <c r="D40" t="n">
-        <v>584.4613435928212</v>
+        <v>3237.000859932811</v>
       </c>
       <c r="E40" t="n">
-        <v>584.4613435928212</v>
+        <v>3067.242856183548</v>
       </c>
       <c r="F40" t="n">
-        <v>407.7542895545774</v>
+        <v>2890.535802145304</v>
       </c>
       <c r="G40" t="n">
-        <v>242.1630145804051</v>
+        <v>2724.944527171132</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>2585.042352861507</v>
       </c>
       <c r="I40" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J40" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K40" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L40" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M40" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N40" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O40" t="n">
-        <v>2203.22078133891</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P40" t="n">
-        <v>2550.727675309252</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q40" t="n">
-        <v>2718.920450173584</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173584</v>
+        <v>5091.624192244353</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471581</v>
+        <v>4932.38282354235</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050036</v>
+        <v>4686.503377120805</v>
       </c>
       <c r="U40" t="n">
-        <v>2035.366634303141</v>
+        <v>4408.070376373911</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.411126173571</v>
+        <v>4121.114868244342</v>
       </c>
       <c r="W40" t="n">
-        <v>1476.384721759863</v>
+        <v>3849.088463830633</v>
       </c>
       <c r="X40" t="n">
-        <v>1230.992967093275</v>
+        <v>3603.696709164046</v>
       </c>
       <c r="Y40" t="n">
-        <v>1003.573296407384</v>
+        <v>3603.696709164046</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2482.765607037787</v>
+        <v>2519.992517327003</v>
       </c>
       <c r="C41" t="n">
-        <v>2044.62313422121</v>
+        <v>2081.850044510426</v>
       </c>
       <c r="D41" t="n">
-        <v>1608.713349395655</v>
+        <v>1645.940259684871</v>
       </c>
       <c r="E41" t="n">
-        <v>1174.93860455395</v>
+        <v>1212.165514843166</v>
       </c>
       <c r="F41" t="n">
-        <v>747.0711749631575</v>
+        <v>784.2980852523735</v>
       </c>
       <c r="G41" t="n">
-        <v>345.6733435864214</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="H41" t="n">
-        <v>56.54318902963762</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I41" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J41" t="n">
-        <v>491.3810871096955</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="K41" t="n">
-        <v>491.3810871096955</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="L41" t="n">
-        <v>491.3810871096955</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="M41" t="n">
-        <v>491.3810871096955</v>
+        <v>1250.817934529405</v>
       </c>
       <c r="N41" t="n">
-        <v>701.5387406219836</v>
+        <v>2376.548917965851</v>
       </c>
       <c r="O41" t="n">
-        <v>1396.102936374607</v>
+        <v>3356.728584536158</v>
       </c>
       <c r="P41" t="n">
-        <v>2090.66713212723</v>
+        <v>3972.852115231033</v>
       </c>
       <c r="Q41" t="n">
-        <v>2637.165918085825</v>
+        <v>4519.350901189628</v>
       </c>
       <c r="R41" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S41" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="T41" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="U41" t="n">
-        <v>2806.319982838882</v>
+        <v>4541.193079588086</v>
       </c>
       <c r="V41" t="n">
-        <v>2806.319982838882</v>
+        <v>4178.576129521913</v>
       </c>
       <c r="W41" t="n">
-        <v>2806.319982838882</v>
+        <v>3773.720674932946</v>
       </c>
       <c r="X41" t="n">
-        <v>2806.319982838882</v>
+        <v>3354.578211512257</v>
       </c>
       <c r="Y41" t="n">
-        <v>2806.319982838882</v>
+        <v>2946.29208781191</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C42" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D42" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E42" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F42" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G42" t="n">
-        <v>97.86205184056516</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H42" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I42" t="n">
-        <v>82.19007281723522</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J42" t="n">
-        <v>406.7483977834476</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K42" t="n">
-        <v>907.6291872886236</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L42" t="n">
-        <v>1602.193383041247</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M42" t="n">
-        <v>1602.193383041247</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N42" t="n">
-        <v>1602.193383041247</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O42" t="n">
-        <v>1602.193383041247</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P42" t="n">
-        <v>1602.193383041247</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q42" t="n">
-        <v>1602.193383041247</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R42" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S42" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T42" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U42" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V42" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W42" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X42" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y42" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>969.5932852944866</v>
+        <v>962.5053054384693</v>
       </c>
       <c r="C43" t="n">
-        <v>797.0315737777115</v>
+        <v>789.9435939216943</v>
       </c>
       <c r="D43" t="n">
-        <v>631.1535809792342</v>
+        <v>624.065601123217</v>
       </c>
       <c r="E43" t="n">
-        <v>461.3955772299715</v>
+        <v>454.3075973739543</v>
       </c>
       <c r="F43" t="n">
-        <v>284.6885231917278</v>
+        <v>277.6005433357104</v>
       </c>
       <c r="G43" t="n">
-        <v>284.6885231917278</v>
+        <v>112.0092683615381</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7863488821023</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I43" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J43" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K43" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L43" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M43" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N43" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O43" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P43" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q43" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R43" t="n">
-        <v>2651.368188264949</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S43" t="n">
-        <v>2492.126819562946</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="T43" t="n">
-        <v>2279.819623937139</v>
+        <v>2464.550262800109</v>
       </c>
       <c r="U43" t="n">
-        <v>2001.386623190244</v>
+        <v>2186.117262053214</v>
       </c>
       <c r="V43" t="n">
-        <v>1714.431115060674</v>
+        <v>1899.161753923644</v>
       </c>
       <c r="W43" t="n">
-        <v>1442.404710646966</v>
+        <v>1627.135349509936</v>
       </c>
       <c r="X43" t="n">
-        <v>1197.012955980378</v>
+        <v>1381.743594843348</v>
       </c>
       <c r="Y43" t="n">
-        <v>969.5932852944866</v>
+        <v>1154.323924157457</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1136.984915841727</v>
+        <v>2104.363000055493</v>
       </c>
       <c r="C44" t="n">
-        <v>1136.984915841727</v>
+        <v>1666.220527238916</v>
       </c>
       <c r="D44" t="n">
-        <v>701.0751310161718</v>
+        <v>1230.31074241336</v>
       </c>
       <c r="E44" t="n">
-        <v>701.0751310161718</v>
+        <v>796.5359975716556</v>
       </c>
       <c r="F44" t="n">
-        <v>701.0751310161718</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G44" t="n">
-        <v>345.2565542135613</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H44" t="n">
-        <v>56.12639965677763</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I44" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J44" t="n">
-        <v>491.3810871096955</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="K44" t="n">
-        <v>491.3810871096955</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="L44" t="n">
-        <v>491.3810871096955</v>
+        <v>1168.830065571713</v>
       </c>
       <c r="M44" t="n">
-        <v>1185.945282862319</v>
+        <v>2325.877900782264</v>
       </c>
       <c r="N44" t="n">
-        <v>1248.037526580578</v>
+        <v>2325.877900782264</v>
       </c>
       <c r="O44" t="n">
-        <v>1942.601722333201</v>
+        <v>3306.05756735257</v>
       </c>
       <c r="P44" t="n">
-        <v>2637.165918085825</v>
+        <v>4134.367442185966</v>
       </c>
       <c r="Q44" t="n">
-        <v>2637.165918085825</v>
+        <v>4519.350901189628</v>
       </c>
       <c r="R44" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S44" t="n">
-        <v>2806.319982838882</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T44" t="n">
-        <v>2586.25275571192</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U44" t="n">
-        <v>2327.030453028937</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="V44" t="n">
-        <v>1964.413502962763</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="W44" t="n">
-        <v>1964.413502962763</v>
+        <v>3358.091157661436</v>
       </c>
       <c r="X44" t="n">
-        <v>1545.271039542074</v>
+        <v>2938.948694240747</v>
       </c>
       <c r="Y44" t="n">
-        <v>1136.984915841727</v>
+        <v>2530.6625705404</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C45" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D45" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E45" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F45" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G45" t="n">
-        <v>97.86205184056516</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H45" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I45" t="n">
-        <v>82.19007281723522</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J45" t="n">
-        <v>406.7483977834476</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K45" t="n">
-        <v>1087.481917853825</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L45" t="n">
-        <v>1602.193383041247</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M45" t="n">
-        <v>1602.193383041247</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N45" t="n">
-        <v>1602.193383041247</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O45" t="n">
-        <v>1602.193383041247</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P45" t="n">
-        <v>1602.193383041247</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q45" t="n">
-        <v>1602.193383041247</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R45" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S45" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T45" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U45" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V45" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W45" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X45" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y45" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1135.184560268659</v>
+        <v>830.529930918319</v>
       </c>
       <c r="C46" t="n">
-        <v>962.6228487518839</v>
+        <v>657.9682194015439</v>
       </c>
       <c r="D46" t="n">
-        <v>796.7448559534066</v>
+        <v>492.0902266030666</v>
       </c>
       <c r="E46" t="n">
-        <v>626.9868522041439</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="F46" t="n">
-        <v>450.2797981659001</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="G46" t="n">
-        <v>284.6885231917278</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7863488821023</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="I46" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J46" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K46" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L46" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M46" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N46" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O46" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P46" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q46" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R46" t="n">
-        <v>2651.368188264949</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S46" t="n">
-        <v>2492.126819562946</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T46" t="n">
-        <v>2246.247373141401</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U46" t="n">
-        <v>1967.814372394506</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V46" t="n">
-        <v>1680.858864264937</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="W46" t="n">
-        <v>1680.858864264937</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="X46" t="n">
-        <v>1554.422849673538</v>
+        <v>1201.084404846717</v>
       </c>
       <c r="Y46" t="n">
-        <v>1327.003178987646</v>
+        <v>1022.348549637306</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="M2" t="n">
-        <v>667.5152066078568</v>
-      </c>
-      <c r="N2" t="n">
-        <v>667.5152066078567</v>
-      </c>
-      <c r="O2" t="n">
-        <v>640.5448952297625</v>
-      </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,10 +8057,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="K3" t="n">
-        <v>661.3192390158827</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8216,7 +8218,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,7 +8230,7 @@
         <v>145.5272350047205</v>
       </c>
       <c r="O5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
@@ -8289,31 +8291,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>347.9676668794094</v>
-      </c>
       <c r="Q6" t="n">
-        <v>546.2009481132077</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8450,25 +8452,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
       <c r="N8" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="P8" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8526,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>661.3192390158827</v>
+        <v>566.3319231075541</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8690,28 +8692,28 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>701.5799957097205</v>
+        <v>663.6464495681278</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>121.214353500646</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,7 +8768,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8778,19 +8780,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>655.9981329904115</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P12" t="n">
-        <v>687.6461816022032</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,25 +8926,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>282.4901655221295</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>701.5799957097204</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>383.1431497629746</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9000,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9018,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>104.4225274019169</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>282.6337518573332</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -9170,10 +9172,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1150.947247550854</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9185,7 +9187,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,19 +9239,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>806.0025231116373</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9264,7 +9266,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -9410,7 +9412,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>753.9218057523913</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9422,7 +9424,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,16 +9476,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9647,7 +9649,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>695.4268903509969</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9656,7 +9658,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>170.8626916697543</v>
@@ -9875,19 +9877,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831379</v>
+        <v>927.2111175518125</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458549</v>
@@ -9896,7 +9898,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9966,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>109.7971848772036</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10127,13 +10129,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>679.5583048465032</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>239.9071053991102</v>
       </c>
       <c r="R29" t="n">
-        <v>-4.950171672842526e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,19 +10193,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>655.9981329904112</v>
+        <v>992.4305468772036</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10346,22 +10348,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831379</v>
+        <v>110.0804674982792</v>
       </c>
       <c r="P32" t="n">
         <v>836.6766412458549</v>
@@ -10422,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>655.9981329904112</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10440,16 +10442,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10586,19 +10588,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>92.22506899525706</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>807.5312715220462</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458549</v>
@@ -10674,7 +10676,7 @@
         <v>1210.83316575</v>
       </c>
       <c r="N36" t="n">
-        <v>350.8506558504741</v>
+        <v>469.2069973599073</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10686,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,19 +10831,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458549</v>
+        <v>395.0015281256929</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>170.8626916697543</v>
@@ -10899,10 +10901,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10917,10 +10919,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>19.7440643176119</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11066,16 +11068,16 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>212.2804580932203</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>701.5799957097204</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>701.5799957097204</v>
+        <v>622.3470007018941</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
@@ -11139,10 +11141,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>505.9401914193697</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11157,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>701.5799957097204</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>62.7194380992521</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>701.5799957097204</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>388.8721808117789</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697543</v>
@@ -11376,10 +11378,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
-        <v>519.9105708963857</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11394,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -23255,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>420.2562177844453</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23276,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>11.0789435348494</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23464,7 +23466,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23495,25 +23497,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>265.0458962713249</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>125.646990566711</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23668,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>8.789189859683688</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>23.42369649844622</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>3.146865729424235</v>
       </c>
       <c r="U19" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24142,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
-        <v>56.36113619101522</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>26.33579611060396</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24610,10 +24612,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
         <v>160.795820744408</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
@@ -24838,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>111.4236523045828</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24889,10 +24891,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>143.6516710866782</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,10 +25134,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>102.9863699957332</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25312,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>44.07191583437722</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25549,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>110.0349065174804</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.9268490649745</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>101.7177427369752</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25646,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25682,19 +25684,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>110.7913121651014</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>33.23652828778012</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25862,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>411.8858435779265</v>
       </c>
       <c r="G44" t="n">
-        <v>45.12346202838444</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25925,7 +25927,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26032,10 +26034,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26083,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>117.7661826744368</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>48.1969773217163</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>392834.5430169863</v>
+        <v>556582.778773403</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>392834.5430169863</v>
+        <v>556582.778773403</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>593517.08288335</v>
+        <v>593517.0828833501</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>593517.0828833501</v>
+        <v>593517.08288335</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>593517.0828833501</v>
+        <v>593517.08288335</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>392834.5430169863</v>
+        <v>556582.7787734029</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>392834.5430169863</v>
+        <v>556582.7787734029</v>
       </c>
     </row>
   </sheetData>
@@ -26320,28 +26322,28 @@
         <v>375303.123923286</v>
       </c>
       <c r="E2" t="n">
-        <v>244099.9677817452</v>
+        <v>345850.0296919845</v>
       </c>
       <c r="F2" t="n">
-        <v>244099.9677817452</v>
+        <v>345850.0296919845</v>
       </c>
       <c r="G2" t="n">
         <v>368800.3088961466</v>
       </c>
       <c r="H2" t="n">
-        <v>368800.3088961468</v>
+        <v>368800.3088961467</v>
       </c>
       <c r="I2" t="n">
-        <v>368800.3088961466</v>
+        <v>368800.3088961467</v>
       </c>
       <c r="J2" t="n">
         <v>368800.3088961466</v>
       </c>
       <c r="K2" t="n">
-        <v>368800.3088961466</v>
+        <v>368800.3088961467</v>
       </c>
       <c r="L2" t="n">
-        <v>368800.3088961467</v>
+        <v>368800.3088961465</v>
       </c>
       <c r="M2" t="n">
         <v>368800.3088961465</v>
@@ -26350,10 +26352,10 @@
         <v>368800.3088961467</v>
       </c>
       <c r="O2" t="n">
-        <v>244099.9677817452</v>
+        <v>345850.0296919846</v>
       </c>
       <c r="P2" t="n">
-        <v>244099.9677817452</v>
+        <v>345850.0296919846</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>10170.99660045619</v>
+        <v>150665.753571748</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>158059.4769461092</v>
+        <v>29089.80917260779</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>8489.081703340786</v>
+        <v>125751.0883356908</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,31 +26420,31 @@
         <v>139383.7472389045</v>
       </c>
       <c r="C4" t="n">
-        <v>139383.7472389045</v>
+        <v>139383.7472389046</v>
       </c>
       <c r="D4" t="n">
         <v>139383.7472389045</v>
       </c>
       <c r="E4" t="n">
-        <v>27218.28317125586</v>
+        <v>38563.8889201347</v>
       </c>
       <c r="F4" t="n">
-        <v>27218.28317125586</v>
+        <v>38563.8889201347</v>
       </c>
       <c r="G4" t="n">
-        <v>41122.95192991273</v>
+        <v>41122.95192991272</v>
       </c>
       <c r="H4" t="n">
-        <v>41122.95192991273</v>
+        <v>41122.95192991272</v>
       </c>
       <c r="I4" t="n">
-        <v>41122.95192991271</v>
+        <v>41122.95192991272</v>
       </c>
       <c r="J4" t="n">
         <v>41122.95192991271</v>
       </c>
       <c r="K4" t="n">
-        <v>41122.95192991271</v>
+        <v>41122.95192991272</v>
       </c>
       <c r="L4" t="n">
         <v>41122.95192991271</v>
@@ -26451,13 +26453,13 @@
         <v>41122.95192991272</v>
       </c>
       <c r="N4" t="n">
-        <v>41122.95192991273</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="O4" t="n">
-        <v>27218.28317125587</v>
+        <v>38563.8889201347</v>
       </c>
       <c r="P4" t="n">
-        <v>27218.28317125587</v>
+        <v>38563.8889201347</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26478,10 @@
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>42656.063739151</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="F5" t="n">
-        <v>42656.063739151</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>42656.063739151</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="P5" t="n">
-        <v>42656.063739151</v>
+        <v>71265.2754823288</v>
       </c>
     </row>
     <row r="6">
@@ -26519,25 +26521,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-61992.8464614211</v>
+        <v>-61992.84646142104</v>
       </c>
       <c r="C6" t="n">
-        <v>161706.8521226238</v>
+        <v>161706.8521226237</v>
       </c>
       <c r="D6" t="n">
         <v>161706.8521226238</v>
       </c>
       <c r="E6" t="n">
-        <v>164054.6242708822</v>
+        <v>85355.11171777306</v>
       </c>
       <c r="F6" t="n">
-        <v>174225.6208713383</v>
+        <v>236020.8652895211</v>
       </c>
       <c r="G6" t="n">
-        <v>91899.64141433212</v>
+        <v>220869.3091878336</v>
       </c>
       <c r="H6" t="n">
-        <v>249959.1183604415</v>
+        <v>249959.1183604414</v>
       </c>
       <c r="I6" t="n">
         <v>249959.1183604414</v>
@@ -26549,19 +26551,19 @@
         <v>249959.1183604414</v>
       </c>
       <c r="L6" t="n">
-        <v>249959.1183604414</v>
+        <v>249959.1183604413</v>
       </c>
       <c r="M6" t="n">
-        <v>241470.0366571005</v>
+        <v>124208.0300247505</v>
       </c>
       <c r="N6" t="n">
         <v>249959.1183604415</v>
       </c>
       <c r="O6" t="n">
-        <v>174225.6208713384</v>
+        <v>236020.8652895211</v>
       </c>
       <c r="P6" t="n">
-        <v>174225.6208713384</v>
+        <v>236020.8652895211</v>
       </c>
     </row>
   </sheetData>
@@ -26796,10 +26798,10 @@
         <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>701.5799957097204</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="F4" t="n">
-        <v>701.5799957097204</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>701.5799957097204</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="P4" t="n">
-        <v>701.5799957097204</v>
+        <v>1172.126241485671</v>
       </c>
     </row>
   </sheetData>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>34.06478910186348</v>
+        <v>504.611034877814</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>576.680507675025</v>
+        <v>106.1342618990743</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186348</v>
+        <v>504.611034877814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186348</v>
+        <v>504.611034877814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>576.680507675025</v>
+        <v>106.1342618990743</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27385,19 +27387,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27432,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>185.0926579417336</v>
+        <v>110.5076572325423</v>
       </c>
     </row>
     <row r="3">
@@ -27549,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>5.631333357557878</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27594,13 +27596,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>15.21302026266352</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,73 +27615,73 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86.5576416575629</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
       </c>
       <c r="D5" t="n">
+        <v>336.280311175259</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.4126214791313976</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>217.8665548556918</v>
+      </c>
+      <c r="U5" t="n">
+        <v>256.6300796561533</v>
+      </c>
+      <c r="V5" t="n">
+        <v>358.9907805655117</v>
+      </c>
+      <c r="W5" t="n">
         <v>400</v>
       </c>
-      <c r="E5" t="n">
+      <c r="X5" t="n">
         <v>400</v>
-      </c>
-      <c r="F5" t="n">
-        <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>397.3838530629687</v>
-      </c>
-      <c r="H5" t="n">
-        <v>286.2388530112159</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27825,13 +27827,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>143.6516710866787</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>111.423652304583</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27853,16 +27855,16 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>71.74413243208051</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>286.9523711746148</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,13 +27909,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28020,10 +28022,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>33.23652828778035</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28059,13 +28061,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>111.4236523045822</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -30289,7 +30291,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30417,7 +30419,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>4.901797486430345e-12</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="M2" t="n">
-        <v>667.5152066078568</v>
-      </c>
-      <c r="N2" t="n">
-        <v>667.5152066078567</v>
-      </c>
-      <c r="O2" t="n">
-        <v>640.5448952297625</v>
-      </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,10 +34777,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="K3" t="n">
-        <v>661.3192390158827</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34936,7 +34938,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,7 +34950,7 @@
         <v>145.5272350047205</v>
       </c>
       <c r="O5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
@@ -35009,31 +35011,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>347.9676668794094</v>
-      </c>
       <c r="Q6" t="n">
-        <v>546.2009481132077</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35100,13 +35102,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
@@ -35170,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
       <c r="N8" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="P8" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35246,13 +35248,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>661.3192390158827</v>
+        <v>566.3319231075541</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35267,10 +35269,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35410,28 +35412,28 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>701.5799957097205</v>
+        <v>663.6464495681278</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>121.214353500646</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35498,19 +35500,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>655.9981329904115</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P12" t="n">
-        <v>687.6461816022032</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35571,7 +35573,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35644,25 +35646,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>282.4901655221295</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>701.5799957097204</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>383.1431497629746</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
@@ -35720,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35738,16 +35740,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>104.4225274019169</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35808,7 +35810,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35881,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>282.6337518573332</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1150.947247550854</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35905,7 +35907,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,19 +35959,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>806.0025231116373</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35984,7 +35986,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,13 +36041,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
@@ -36054,13 +36056,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
@@ -36130,7 +36132,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>753.9218057523913</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36142,7 +36144,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36212,16 +36214,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36367,7 +36369,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>695.4268903509969</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36376,7 +36378,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>170.862691669754</v>
@@ -36595,19 +36597,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831377</v>
+        <v>927.2111175518125</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458546</v>
@@ -36616,7 +36618,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36686,16 +36688,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>109.7971848772036</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -36838,22 +36840,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>1168.735187081364</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831377</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P29" t="n">
-        <v>679.5583048465032</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>239.9071053991102</v>
       </c>
       <c r="R29" t="n">
-        <v>-8.053963279557705e-14</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,19 +36913,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>655.9981329904112</v>
+        <v>992.4305468772036</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36987,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37002,13 +37004,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,22 +37068,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831377</v>
+        <v>110.0804674982792</v>
       </c>
       <c r="P32" t="n">
         <v>836.6766412458546</v>
@@ -37142,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K33" t="n">
-        <v>655.9981329904112</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37160,16 +37162,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645586</v>
@@ -37239,13 +37241,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,19 +37308,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>92.22506899525706</v>
+        <v>1168.735187081364</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>807.5312715220462</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458546</v>
@@ -37394,7 +37396,7 @@
         <v>1210.83316575</v>
       </c>
       <c r="N36" t="n">
-        <v>350.8506558504741</v>
+        <v>469.2069973599073</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37406,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37549,19 +37551,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>395.0015281256929</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>170.862691669754</v>
@@ -37619,10 +37621,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37637,10 +37639,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638367</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>19.7440643176119</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37698,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37713,13 +37715,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512993</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -37786,22 +37788,22 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>212.2804580932203</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O41" t="n">
-        <v>701.5799957097204</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>701.5799957097204</v>
+        <v>622.3470007018941</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>505.9401914193697</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37877,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37941,7 +37943,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>701.5799957097204</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>62.7194380992521</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>701.5799957097204</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>388.8721808117789</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
-        <v>519.9105708963857</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38114,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38178,7 +38180,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1360700.396968411</v>
+        <v>1360094.309339514</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>606553.2040797154</v>
+        <v>606553.2040797153</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6741478.761121088</v>
+        <v>6741478.761121087</v>
       </c>
     </row>
     <row r="11">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>184.515494921068</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>293.6956052308008</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -831,10 +831,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>158.3040288668727</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -882,10 +882,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>27.97358346682135</v>
       </c>
     </row>
     <row r="5">
@@ -901,22 +901,22 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>95.2703758020409</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>387.3016383162693</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1065,13 +1065,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>90.30617524481291</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1110,10 +1110,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>172.6623007436909</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>168.5716186828009</v>
       </c>
       <c r="C8" t="n">
-        <v>362.0169156563304</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
         <v>431.5506869772999</v>
@@ -1153,7 +1153,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1302,13 +1302,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>90.30617524481291</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -1341,13 +1341,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>46.2253027104011</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>10.15073120213241</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1423,7 +1423,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>206.7876113208424</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1432,7 +1432,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1545,7 +1545,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1587,10 +1587,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>275.29676318859</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1660,10 +1660,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>92.21956428898076</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>130.9830890894425</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1770,7 +1770,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1782,7 +1782,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>219.9969554588831</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>73.99920364759211</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1833,7 +1833,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1861,7 +1861,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.238853011217</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -1897,7 +1897,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>240.273786227905</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2070,7 +2070,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>85.55329631630673</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2098,7 +2098,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>286.238853011217</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
         <v>0.4126214791313976</v>
@@ -2256,10 +2256,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>5.990622819018409</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2298,7 +2298,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
@@ -2496,7 +2496,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>61.43755362246745</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,10 +2532,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>172.6623007436909</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2727,10 +2727,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>3.139541480022588</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
@@ -2955,7 +2955,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>28.8556017839858</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2964,13 +2964,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,10 +3003,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>131.9969996527475</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3192,7 +3192,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>22.56919457453878</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3204,7 +3204,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3426,19 +3426,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>126.7641785672301</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
@@ -3486,7 +3486,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>221.1091630478547</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -3666,7 +3666,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>2.29236380551803</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -3678,10 +3678,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
@@ -3720,7 +3720,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>144.4937753855477</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3729,7 +3729,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>10.15073120213241</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3760,7 +3760,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>145.8387674910519</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3915,7 +3915,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>18.05677735225757</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3979,7 +3979,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>21.87520451048465</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -3988,7 +3988,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>11.70291171695784</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>397.3838530629687</v>
@@ -4146,16 +4146,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4203,7 +4203,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>176.9484966573165</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2076.000019869234</v>
+        <v>866.5213804116893</v>
       </c>
       <c r="C2" t="n">
-        <v>2041.897951093061</v>
+        <v>832.4193116355167</v>
       </c>
       <c r="D2" t="n">
-        <v>1605.988166267505</v>
+        <v>800.5499308503653</v>
       </c>
       <c r="E2" t="n">
-        <v>1172.213421425801</v>
+        <v>770.8155900490646</v>
       </c>
       <c r="F2" t="n">
-        <v>744.3459918350084</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G2" t="n">
         <v>342.9481604582723</v>
@@ -4333,10 +4333,10 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>488.6559039815464</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L2" t="n">
-        <v>488.6559039815464</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M2" t="n">
         <v>632.7278666362198</v>
@@ -4363,19 +4363,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="U2" t="n">
-        <v>2410.838523748444</v>
+        <v>2483.681538632369</v>
       </c>
       <c r="V2" t="n">
-        <v>2410.838523748444</v>
+        <v>2121.064588566196</v>
       </c>
       <c r="W2" t="n">
-        <v>2410.023473199882</v>
+        <v>2120.249538017633</v>
       </c>
       <c r="X2" t="n">
-        <v>2394.921413819597</v>
+        <v>1701.107074596944</v>
       </c>
       <c r="Y2" t="n">
-        <v>2098.259186313737</v>
+        <v>1292.820950896597</v>
       </c>
     </row>
     <row r="3">
@@ -4409,22 +4409,22 @@
         <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>397.8892067392439</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L3" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M3" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N3" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O3" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P3" t="n">
         <v>1058.729261281022</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>986.8689873181997</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C4" t="n">
-        <v>814.3072758014247</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D4" t="n">
-        <v>648.4292830029474</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E4" t="n">
-        <v>478.6712792536846</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F4" t="n">
-        <v>301.9642252154408</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G4" t="n">
-        <v>142.0611657539532</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H4" t="n">
         <v>142.0611657539532</v>
@@ -4530,10 +4530,10 @@
         <v>1406.107276723079</v>
       </c>
       <c r="X4" t="n">
-        <v>1406.107276723079</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y4" t="n">
-        <v>1178.687606037187</v>
+        <v>1132.45937714051</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1735.906148501163</v>
+        <v>936.2280884669766</v>
       </c>
       <c r="C5" t="n">
-        <v>1701.80407972499</v>
+        <v>902.126019690804</v>
       </c>
       <c r="D5" t="n">
-        <v>1605.571376894645</v>
+        <v>870.2566389056526</v>
       </c>
       <c r="E5" t="n">
-        <v>1171.796632052941</v>
+        <v>479.0428628286129</v>
       </c>
       <c r="F5" t="n">
-        <v>743.9292024621484</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G5" t="n">
-        <v>342.5313710854123</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
         <v>53.40121652862856</v>
@@ -4579,7 +4579,7 @@
         <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
         <v>1293.567921177998</v>
@@ -4594,25 +4594,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2586.408952615265</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U5" t="n">
-        <v>2586.408952615265</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V5" t="n">
-        <v>2586.408952615265</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="W5" t="n">
-        <v>2585.593902066702</v>
+        <v>1785.915842032516</v>
       </c>
       <c r="X5" t="n">
-        <v>2570.491842686417</v>
+        <v>1366.773378611827</v>
       </c>
       <c r="Y5" t="n">
-        <v>2162.20571898607</v>
+        <v>1362.527658951884</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>1406.536348780554</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>1311.446059927107</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>1217.325645254061</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>1006.821064952619</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>1032.884738113077</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>1357.443063079289</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>1357.443063079289</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1357.443063079289</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1357.443063079289</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1357.443063079289</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1357.443063079289</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>2018.283117621067</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>2552.888048337089</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>2100.97268027238</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>1915.649926005574</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>1760.782490244454</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1132.45937714051</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C7" t="n">
-        <v>959.897665623735</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D7" t="n">
-        <v>794.0196728252577</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E7" t="n">
-        <v>624.2616690759949</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F7" t="n">
-        <v>447.554615037751</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="G7" t="n">
-        <v>281.9633400635787</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="H7" t="n">
         <v>142.0611657539532</v>
@@ -4725,19 +4725,19 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>139.9809016933183</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>414.7393562644539</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>832.949238032415</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
         <v>2154.361157596754</v>
@@ -4752,25 +4752,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>2489.401636434796</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>2243.522190013251</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>2243.522190013251</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>2069.115825625685</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>1797.089421211977</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>1551.697666545389</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y7" t="n">
-        <v>1324.277995859497</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2407.571603271173</v>
+        <v>2479.623634536778</v>
       </c>
       <c r="C8" t="n">
-        <v>2041.897951093061</v>
+        <v>2041.481161720201</v>
       </c>
       <c r="D8" t="n">
-        <v>1605.988166267505</v>
+        <v>1605.571376894645</v>
       </c>
       <c r="E8" t="n">
-        <v>1172.213421425801</v>
+        <v>1171.796632052941</v>
       </c>
       <c r="F8" t="n">
-        <v>744.3459918350084</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G8" t="n">
-        <v>342.9481604582723</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>488.6559039815464</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L8" t="n">
-        <v>488.6559039815464</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M8" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N8" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
         <v>1293.567921177998</v>
@@ -4834,22 +4834,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2449.993599304466</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2449.993599304466</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>2449.993599304466</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>2449.178548755904</v>
+        <v>2669.245775882865</v>
       </c>
       <c r="X8" t="n">
-        <v>2434.076489375619</v>
+        <v>2654.14371650258</v>
       </c>
       <c r="Y8" t="n">
-        <v>2429.830769715676</v>
+        <v>2649.897996842637</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>377.9595414948409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>938.6281453713194</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>938.6281453713194</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>938.6281453713194</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>938.6281453713194</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>938.6281453713194</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1132.45937714051</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>959.897665623735</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>794.0196728252577</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E10" t="n">
-        <v>624.2616690759949</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F10" t="n">
-        <v>447.554615037751</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="G10" t="n">
-        <v>281.9633400635787</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="H10" t="n">
         <v>142.0611657539532</v>
@@ -4989,25 +4989,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2601.950780176799</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>2356.071333755254</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>2356.071333755254</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>2069.115825625685</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1797.089421211977</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1551.697666545389</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>1324.277995859497</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5041,25 +5041,25 @@
         <v>93.77009931885368</v>
       </c>
       <c r="J11" t="n">
-        <v>93.77009931885368</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K11" t="n">
-        <v>928.1203912770317</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L11" t="n">
-        <v>1585.130376349478</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M11" t="n">
-        <v>1585.130376349478</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N11" t="n">
-        <v>2710.861359785925</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O11" t="n">
-        <v>3691.041026356231</v>
+        <v>3144.542240397637</v>
       </c>
       <c r="P11" t="n">
-        <v>4519.350901189628</v>
+        <v>3972.852115231033</v>
       </c>
       <c r="Q11" t="n">
         <v>4519.350901189628</v>
@@ -5071,22 +5071,22 @@
         <v>4604.853092126521</v>
       </c>
       <c r="T11" t="n">
-        <v>4395.976717054963</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U11" t="n">
-        <v>4136.75441437198</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="V11" t="n">
-        <v>3774.137464305806</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="W11" t="n">
-        <v>3774.137464305806</v>
+        <v>3358.091157661436</v>
       </c>
       <c r="X11" t="n">
-        <v>3354.995000885117</v>
+        <v>2938.948694240747</v>
       </c>
       <c r="Y11" t="n">
-        <v>2946.70887718477</v>
+        <v>2530.6625705404</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>93.77009931885368</v>
       </c>
       <c r="I12" t="n">
-        <v>93.77009931885368</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J12" t="n">
-        <v>93.77009931885368</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K12" t="n">
-        <v>93.77009931885368</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L12" t="n">
-        <v>93.77009931885368</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M12" t="n">
-        <v>93.77009931885368</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N12" t="n">
-        <v>743.208250979361</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O12" t="n">
-        <v>1757.009860797663</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P12" t="n">
-        <v>1757.009860797663</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q12" t="n">
-        <v>1757.009860797663</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R12" t="n">
         <v>1757.009860797663</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>944.266136395785</v>
+        <v>1084.16831070541</v>
       </c>
       <c r="C13" t="n">
-        <v>771.7044248790099</v>
+        <v>911.6065991886354</v>
       </c>
       <c r="D13" t="n">
-        <v>605.8264320805326</v>
+        <v>745.7286063901581</v>
       </c>
       <c r="E13" t="n">
-        <v>436.0684283312698</v>
+        <v>575.9706026408953</v>
       </c>
       <c r="F13" t="n">
-        <v>259.361374293026</v>
+        <v>399.2635486026515</v>
       </c>
       <c r="G13" t="n">
-        <v>93.77009931885368</v>
+        <v>233.6722736284792</v>
       </c>
       <c r="H13" t="n">
         <v>93.77009931885368</v>
@@ -5226,25 +5226,25 @@
         <v>2710.429709221653</v>
       </c>
       <c r="S13" t="n">
-        <v>2692.190540178969</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.311093757424</v>
+        <v>2305.308894098105</v>
       </c>
       <c r="U13" t="n">
-        <v>2167.878093010529</v>
+        <v>2026.87589335121</v>
       </c>
       <c r="V13" t="n">
-        <v>1880.92258488096</v>
+        <v>1748.798354776877</v>
       </c>
       <c r="W13" t="n">
-        <v>1608.896180467251</v>
+        <v>1748.798354776877</v>
       </c>
       <c r="X13" t="n">
-        <v>1363.504425800664</v>
+        <v>1503.406600110289</v>
       </c>
       <c r="Y13" t="n">
-        <v>1136.084755114772</v>
+        <v>1275.986929424398</v>
       </c>
     </row>
     <row r="14">
@@ -5278,28 +5278,28 @@
         <v>93.77009931885368</v>
       </c>
       <c r="J14" t="n">
-        <v>93.77009931885368</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K14" t="n">
-        <v>928.1203912770317</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L14" t="n">
-        <v>928.1203912770317</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M14" t="n">
-        <v>1207.78565514394</v>
+        <v>3595.48288019336</v>
       </c>
       <c r="N14" t="n">
-        <v>2333.516638580387</v>
+        <v>3595.48288019336</v>
       </c>
       <c r="O14" t="n">
-        <v>3313.696305150693</v>
+        <v>3595.48288019336</v>
       </c>
       <c r="P14" t="n">
-        <v>4142.00617998409</v>
+        <v>3972.852115231033</v>
       </c>
       <c r="Q14" t="n">
-        <v>4688.504965942684</v>
+        <v>4519.350901189628</v>
       </c>
       <c r="R14" t="n">
         <v>4688.504965942684</v>
@@ -5308,7 +5308,7 @@
         <v>4604.853092126521</v>
       </c>
       <c r="T14" t="n">
-        <v>4511.702017087146</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U14" t="n">
         <v>4252.479714404163</v>
@@ -5360,19 +5360,19 @@
         <v>444.3920974455236</v>
       </c>
       <c r="K15" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L15" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M15" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N15" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O15" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P15" t="n">
         <v>1099.098144071247</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1032.92608562111</v>
+        <v>1006.950267132258</v>
       </c>
       <c r="C16" t="n">
-        <v>860.3643741043346</v>
+        <v>834.3885556154828</v>
       </c>
       <c r="D16" t="n">
-        <v>694.4863813058573</v>
+        <v>834.3885556154828</v>
       </c>
       <c r="E16" t="n">
-        <v>524.7283775565945</v>
+        <v>664.63055186622</v>
       </c>
       <c r="F16" t="n">
-        <v>348.0213235183507</v>
+        <v>487.9234978279762</v>
       </c>
       <c r="G16" t="n">
-        <v>182.4300485441784</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H16" t="n">
         <v>182.4300485441784</v>
@@ -5460,28 +5460,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>2689.011887927025</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S16" t="n">
-        <v>2529.770519225022</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T16" t="n">
-        <v>2307.551372296857</v>
+        <v>2305.308894098105</v>
       </c>
       <c r="U16" t="n">
-        <v>2029.118371549962</v>
+        <v>2230.562223747002</v>
       </c>
       <c r="V16" t="n">
-        <v>1742.162863420393</v>
+        <v>1943.606715617433</v>
       </c>
       <c r="W16" t="n">
-        <v>1470.136459006684</v>
+        <v>1671.580311203724</v>
       </c>
       <c r="X16" t="n">
-        <v>1224.744704340097</v>
+        <v>1426.188556537137</v>
       </c>
       <c r="Y16" t="n">
-        <v>1224.744704340097</v>
+        <v>1198.768885851245</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5524,19 +5524,19 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>3586.36356101008</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>3586.36356101008</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>4566.543227580387</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
         <v>5113.042013538981</v>
@@ -5545,22 +5545,22 @@
         <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3346.878440713113</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>3174.316729196338</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>3008.438736397861</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>2838.680732648598</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>2661.973678610354</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>5091.624192244353</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>5091.624192244353</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>4848.923398074752</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>4570.490397327858</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>4283.534889198289</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W19" t="n">
-        <v>4011.50848478458</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X19" t="n">
-        <v>3766.116730117992</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y19" t="n">
-        <v>3538.697059432101</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5752,28 +5752,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2011.671098481817</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N20" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
         <v>5113.042013538981</v>
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C21" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D21" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E21" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F21" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G21" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H21" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S21" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T21" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U21" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V21" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W21" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X21" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y21" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477108</v>
+        <v>1098.710185817961</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309357</v>
+        <v>926.148474301186</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324584</v>
+        <v>760.2704815027087</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831957</v>
+        <v>590.5124777534459</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>413.8054237152021</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>248.2141487410298</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>108.3119744314043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5937,25 +5937,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U22" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832886</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>1763.340229889428</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>1517.94847522284</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>1290.528804536948</v>
       </c>
     </row>
     <row r="23">
@@ -6001,13 +6001,13 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>3135.398407382222</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>4115.578073952528</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>4943.887948785924</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
         <v>4943.887948785924</v>
@@ -6065,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>982.1554751127505</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C25" t="n">
-        <v>982.1554751127505</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D25" t="n">
-        <v>816.2774823142732</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E25" t="n">
-        <v>646.5194785650106</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F25" t="n">
-        <v>469.8124245267668</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>304.2211495525945</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>164.318975242969</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6180,19 +6180,19 @@
         <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V25" t="n">
-        <v>1726.993304878938</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W25" t="n">
-        <v>1454.96690046523</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X25" t="n">
-        <v>1209.575145798642</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y25" t="n">
-        <v>982.1554751127505</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="26">
@@ -6229,25 +6229,25 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>537.5155277236975</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>1694.563362934248</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
-        <v>2820.294346370695</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C27" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D27" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E27" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F27" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G27" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H27" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S27" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T27" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U27" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V27" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W27" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X27" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y27" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>790.3368563937634</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C28" t="n">
-        <v>617.7751448769883</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D28" t="n">
-        <v>451.897152078511</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E28" t="n">
-        <v>282.1391483292483</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F28" t="n">
-        <v>105.4320942910045</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6408,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.575145798642</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1554751127505</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="29">
@@ -6466,25 +6466,25 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2769.623329187108</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>3895.354312623555</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>4875.533979193861</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>4875.533979193861</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6539,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3575.440564248063</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C31" t="n">
-        <v>3402.878852731288</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D31" t="n">
-        <v>3237.000859932811</v>
+        <v>588.6280723679117</v>
       </c>
       <c r="E31" t="n">
-        <v>3067.242856183548</v>
+        <v>418.8700686186489</v>
       </c>
       <c r="F31" t="n">
-        <v>2890.535802145304</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="G31" t="n">
-        <v>2724.944527171132</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H31" t="n">
-        <v>2585.042352861507</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J31" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K31" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L31" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M31" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N31" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O31" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P31" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q31" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>5091.624192244353</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>4932.38282354235</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>4932.38282354235</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>4799.052520862807</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V31" t="n">
-        <v>4512.097012733238</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W31" t="n">
-        <v>4240.070608319529</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X31" t="n">
-        <v>3994.678853652942</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y31" t="n">
-        <v>3767.25918296705</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="32">
@@ -6700,19 +6700,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2334.36864173419</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
         <v>3569.079287993933</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C33" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D33" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E33" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F33" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G33" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H33" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S33" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T33" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U33" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V33" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W33" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X33" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y33" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="34">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6882,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="35">
@@ -6937,28 +6937,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>537.5155277236975</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>1612.575493976557</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M35" t="n">
-        <v>2769.623329187108</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N35" t="n">
-        <v>3569.079287993933</v>
+        <v>3137.402081918264</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>4117.581748488571</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>4945.891623321967</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>3449.802252060173</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>3449.802252060173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>3449.802252060173</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>3449.802252060173</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>4648.527086152673</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>5113.042013538981</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>5113.042013538981</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>5113.042013538981</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>5113.042013538981</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>790.3368563937634</v>
+        <v>839.0206718702449</v>
       </c>
       <c r="C37" t="n">
-        <v>662.2922315783794</v>
+        <v>666.4589603534698</v>
       </c>
       <c r="D37" t="n">
-        <v>496.4142387799021</v>
+        <v>500.5809675549925</v>
       </c>
       <c r="E37" t="n">
-        <v>496.4142387799021</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G37" t="n">
         <v>330.8229638057298</v>
@@ -7134,13 +7134,13 @@
         <v>1726.993304878938</v>
       </c>
       <c r="W37" t="n">
-        <v>1454.96690046523</v>
+        <v>1503.650715941711</v>
       </c>
       <c r="X37" t="n">
-        <v>1209.575145798642</v>
+        <v>1258.258961275124</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.1554751127505</v>
+        <v>1030.839290589232</v>
       </c>
     </row>
     <row r="38">
@@ -7174,28 +7174,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934734</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N38" t="n">
-        <v>3572.656769371182</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O38" t="n">
-        <v>4552.836435941488</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P38" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R38" t="n">
         <v>5113.04201353898</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3411.878090445059</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>3239.316378928283</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>3237.000859932811</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>3067.242856183548</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>2890.535802145304</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>2724.944527171132</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>2585.042352861507</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>5091.624192244353</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>4932.38282354235</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>4686.503377120805</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>4408.070376373911</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V40" t="n">
-        <v>4121.114868244342</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>3849.088463830633</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>3603.696709164046</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>3603.696709164046</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2519.992517327003</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C41" t="n">
-        <v>2081.850044510426</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D41" t="n">
-        <v>1645.940259684871</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E41" t="n">
-        <v>1212.165514843166</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F41" t="n">
-        <v>784.2980852523735</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G41" t="n">
-        <v>382.9002538756374</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H41" t="n">
-        <v>93.77009931885368</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I41" t="n">
         <v>93.77009931885368</v>
       </c>
       <c r="J41" t="n">
-        <v>93.77009931885368</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K41" t="n">
-        <v>93.77009931885368</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L41" t="n">
-        <v>93.77009931885368</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M41" t="n">
-        <v>1250.817934529405</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N41" t="n">
-        <v>2376.548917965851</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O41" t="n">
-        <v>3356.728584536158</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P41" t="n">
-        <v>3972.852115231033</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q41" t="n">
-        <v>4519.350901189628</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R41" t="n">
         <v>4688.504965942684</v>
       </c>
       <c r="S41" t="n">
-        <v>4688.504965942684</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T41" t="n">
-        <v>4688.504965942684</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U41" t="n">
-        <v>4541.193079588086</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="V41" t="n">
-        <v>4178.576129521913</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="W41" t="n">
-        <v>3773.720674932946</v>
+        <v>3358.091157661436</v>
       </c>
       <c r="X41" t="n">
-        <v>3354.578211512257</v>
+        <v>2938.948694240747</v>
       </c>
       <c r="Y41" t="n">
-        <v>2946.29208781191</v>
+        <v>2530.6625705404</v>
       </c>
     </row>
     <row r="42">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>962.5053054384693</v>
+        <v>944.266136395785</v>
       </c>
       <c r="C43" t="n">
-        <v>789.9435939216943</v>
+        <v>771.7044248790099</v>
       </c>
       <c r="D43" t="n">
-        <v>624.065601123217</v>
+        <v>605.8264320805326</v>
       </c>
       <c r="E43" t="n">
-        <v>454.3075973739543</v>
+        <v>436.0684283312698</v>
       </c>
       <c r="F43" t="n">
-        <v>277.6005433357104</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G43" t="n">
-        <v>112.0092683615381</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H43" t="n">
         <v>93.77009931885368</v>
@@ -7596,25 +7596,25 @@
         <v>2710.429709221653</v>
       </c>
       <c r="S43" t="n">
-        <v>2710.429709221653</v>
+        <v>2692.190540178969</v>
       </c>
       <c r="T43" t="n">
-        <v>2464.550262800109</v>
+        <v>2446.311093757424</v>
       </c>
       <c r="U43" t="n">
-        <v>2186.117262053214</v>
+        <v>2167.878093010529</v>
       </c>
       <c r="V43" t="n">
-        <v>1899.161753923644</v>
+        <v>1880.92258488096</v>
       </c>
       <c r="W43" t="n">
-        <v>1627.135349509936</v>
+        <v>1608.896180467251</v>
       </c>
       <c r="X43" t="n">
-        <v>1381.743594843348</v>
+        <v>1363.504425800664</v>
       </c>
       <c r="Y43" t="n">
-        <v>1154.323924157457</v>
+        <v>1136.084755114772</v>
       </c>
     </row>
     <row r="44">
@@ -7627,13 +7627,13 @@
         <v>2104.363000055493</v>
       </c>
       <c r="C44" t="n">
-        <v>1666.220527238916</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D44" t="n">
-        <v>1230.31074241336</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E44" t="n">
-        <v>796.5359975716556</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F44" t="n">
         <v>784.7148746252335</v>
@@ -7648,28 +7648,28 @@
         <v>93.77009931885368</v>
       </c>
       <c r="J44" t="n">
-        <v>93.77009931885368</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K44" t="n">
-        <v>93.77009931885368</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L44" t="n">
-        <v>1168.830065571713</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="M44" t="n">
-        <v>2325.877900782264</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="N44" t="n">
-        <v>2325.877900782264</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="O44" t="n">
-        <v>3306.05756735257</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P44" t="n">
-        <v>4134.367442185966</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q44" t="n">
-        <v>4519.350901189628</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R44" t="n">
         <v>4688.504965942684</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>830.529930918319</v>
+        <v>944.266136395785</v>
       </c>
       <c r="C46" t="n">
-        <v>657.9682194015439</v>
+        <v>771.7044248790099</v>
       </c>
       <c r="D46" t="n">
-        <v>492.0902266030666</v>
+        <v>605.8264320805326</v>
       </c>
       <c r="E46" t="n">
-        <v>322.3322228538038</v>
+        <v>436.0684283312698</v>
       </c>
       <c r="F46" t="n">
-        <v>322.3322228538038</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G46" t="n">
-        <v>322.3322228538038</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H46" t="n">
-        <v>182.4300485441784</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I46" t="n">
         <v>93.77009931885368</v>
@@ -7830,28 +7830,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R46" t="n">
-        <v>2689.011887927025</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S46" t="n">
-        <v>2529.770519225022</v>
+        <v>2692.190540178969</v>
       </c>
       <c r="T46" t="n">
-        <v>2283.891072803477</v>
+        <v>2446.311093757424</v>
       </c>
       <c r="U46" t="n">
-        <v>2005.458072056582</v>
+        <v>2167.878093010529</v>
       </c>
       <c r="V46" t="n">
-        <v>1718.502563927013</v>
+        <v>1880.92258488096</v>
       </c>
       <c r="W46" t="n">
-        <v>1446.476159513304</v>
+        <v>1608.896180467251</v>
       </c>
       <c r="X46" t="n">
-        <v>1201.084404846717</v>
+        <v>1363.504425800664</v>
       </c>
       <c r="Y46" t="n">
-        <v>1022.348549637306</v>
+        <v>1136.084755114772</v>
       </c>
     </row>
   </sheetData>
@@ -7981,13 +7981,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -8057,10 +8057,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>321.6407242930886</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -8227,10 +8227,10 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>145.5272350047205</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
@@ -8297,7 +8297,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>540.0049805212334</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8452,22 +8452,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -8528,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>566.3319231075541</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>663.6464495681278</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>990.0804712831379</v>
+        <v>713.2395913281089</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697543</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8780,19 +8780,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>655.9981329904115</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>282.4901655221295</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458549</v>
+        <v>381.181045492599</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9008,22 +9008,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9172,22 +9172,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1150.947247550854</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -9409,10 +9409,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>753.9218057523913</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9424,7 +9424,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9649,7 +9649,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>695.4268903509969</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9658,7 +9658,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
         <v>170.8626916697543</v>
@@ -9713,22 +9713,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,19 +9877,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>927.2111175518125</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458549</v>
@@ -9898,7 +9898,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10114,28 +10114,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>239.9071053991102</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,19 +10187,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>992.4305468772036</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,22 +10348,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
-        <v>110.0804674982792</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
         <v>836.6766412458549</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>807.5312715220462</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>168.8387779969835</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,22 +10661,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>469.2069973599073</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -10831,22 +10831,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P38" t="n">
-        <v>395.0015281256929</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>990.0804712831379</v>
+        <v>884.1022829978629</v>
       </c>
       <c r="P41" t="n">
-        <v>622.3470007018941</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11296,16 +11296,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11317,10 +11317,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>388.8721808117789</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>411.8858435779263</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>11.0789435348494</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23320,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23466,7 +23466,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,10 +23475,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>8.789189859683802</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23548,10 +23548,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>125.646990566711</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>125.6469905667107</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>23.42369649844622</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>201.6494670918336</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>3.146865729424235</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
     </row>
     <row r="20">
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>81.782726914053</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>26.33579611060396</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,10 +24420,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>102.9863699957348</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24615,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>160.795820744408</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>114.1599680048248</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>135.3636110865067</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,10 +24891,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>143.6516710866782</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>141.6500182959537</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25314,19 +25314,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>44.07191583437722</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>48.19697732171667</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.9268490649745</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>411.8858435779263</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>110.7913121651014</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>120.4463752142717</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25836,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25867,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>411.8858435779263</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25876,7 +25876,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>411.8858435779265</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>48.1969773217163</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>556582.778773403</v>
+        <v>556582.7787734029</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>556582.778773403</v>
+        <v>556582.7787734029</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>593517.0828833501</v>
+        <v>593517.08288335</v>
       </c>
     </row>
     <row r="10">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>556582.7787734029</v>
+        <v>556582.778773403</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>556582.7787734029</v>
+        <v>556582.778773403</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>375303.123923286</v>
       </c>
       <c r="C2" t="n">
-        <v>375303.123923286</v>
+        <v>375303.1239232861</v>
       </c>
       <c r="D2" t="n">
         <v>375303.123923286</v>
       </c>
       <c r="E2" t="n">
-        <v>345850.0296919845</v>
+        <v>345850.0296919847</v>
       </c>
       <c r="F2" t="n">
         <v>345850.0296919845</v>
       </c>
       <c r="G2" t="n">
-        <v>368800.3088961466</v>
+        <v>368800.3088961468</v>
       </c>
       <c r="H2" t="n">
         <v>368800.3088961467</v>
       </c>
       <c r="I2" t="n">
-        <v>368800.3088961467</v>
+        <v>368800.3088961465</v>
       </c>
       <c r="J2" t="n">
         <v>368800.3088961466</v>
       </c>
       <c r="K2" t="n">
+        <v>368800.3088961465</v>
+      </c>
+      <c r="L2" t="n">
+        <v>368800.3088961466</v>
+      </c>
+      <c r="M2" t="n">
         <v>368800.3088961467</v>
       </c>
-      <c r="L2" t="n">
-        <v>368800.3088961465</v>
-      </c>
-      <c r="M2" t="n">
-        <v>368800.3088961465</v>
-      </c>
       <c r="N2" t="n">
-        <v>368800.3088961467</v>
+        <v>368800.3088961466</v>
       </c>
       <c r="O2" t="n">
         <v>345850.0296919846</v>
       </c>
       <c r="P2" t="n">
-        <v>345850.0296919846</v>
+        <v>345850.0296919845</v>
       </c>
     </row>
     <row r="3">
@@ -26420,7 +26420,7 @@
         <v>139383.7472389045</v>
       </c>
       <c r="C4" t="n">
-        <v>139383.7472389046</v>
+        <v>139383.7472389045</v>
       </c>
       <c r="D4" t="n">
         <v>139383.7472389045</v>
@@ -26438,19 +26438,19 @@
         <v>41122.95192991272</v>
       </c>
       <c r="I4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="J4" t="n">
         <v>41122.95192991271</v>
       </c>
       <c r="K4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="L4" t="n">
         <v>41122.95192991271</v>
       </c>
       <c r="M4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="N4" t="n">
         <v>41122.95192991271</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-61992.84646142104</v>
+        <v>-61992.8464614211</v>
       </c>
       <c r="C6" t="n">
-        <v>161706.8521226237</v>
+        <v>161706.8521226239</v>
       </c>
       <c r="D6" t="n">
         <v>161706.8521226238</v>
       </c>
       <c r="E6" t="n">
-        <v>85355.11171777306</v>
+        <v>85249.92209551859</v>
       </c>
       <c r="F6" t="n">
-        <v>236020.8652895211</v>
+        <v>235915.6756672664</v>
       </c>
       <c r="G6" t="n">
-        <v>220869.3091878336</v>
+        <v>220846.0848484511</v>
       </c>
       <c r="H6" t="n">
-        <v>249959.1183604414</v>
+        <v>249935.8940210588</v>
       </c>
       <c r="I6" t="n">
-        <v>249959.1183604414</v>
+        <v>249935.8940210587</v>
       </c>
       <c r="J6" t="n">
-        <v>75307.76964273525</v>
+        <v>75284.54530335261</v>
       </c>
       <c r="K6" t="n">
-        <v>249959.1183604414</v>
+        <v>249935.8940210587</v>
       </c>
       <c r="L6" t="n">
-        <v>249959.1183604413</v>
+        <v>249935.8940210587</v>
       </c>
       <c r="M6" t="n">
-        <v>124208.0300247505</v>
+        <v>124184.805685368</v>
       </c>
       <c r="N6" t="n">
-        <v>249959.1183604415</v>
+        <v>249935.8940210587</v>
       </c>
       <c r="O6" t="n">
-        <v>236020.8652895211</v>
+        <v>235915.6756672665</v>
       </c>
       <c r="P6" t="n">
-        <v>236020.8652895211</v>
+        <v>235915.6756672664</v>
       </c>
     </row>
   </sheetData>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27435,19 +27435,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>72.11458473508526</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>110.5076572325423</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27551,10 +27551,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>5.631333357557878</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27602,10 +27602,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>197.1718905122115</v>
       </c>
     </row>
     <row r="5">
@@ -27621,22 +27621,22 @@
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>336.280311175259</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>42.13535907701845</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>400</v>
-      </c>
-      <c r="X5" t="n">
-        <v>400</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27785,13 +27785,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>48.19697732171632</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27830,10 +27830,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>111.423652304583</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>253.4649560972578</v>
       </c>
       <c r="C8" t="n">
-        <v>71.74413243208051</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
@@ -28022,13 +28022,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>48.19697732171632</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28061,13 +28061,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>111.4236523045822</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -34701,13 +34701,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>321.6407242930886</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34795,7 +34795,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -34947,10 +34947,10 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>145.5272350047205</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
@@ -35011,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35032,10 +35032,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>540.0049805212334</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35102,13 +35102,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
@@ -35172,22 +35172,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -35248,13 +35248,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>566.3319231075541</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35269,10 +35269,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L11" t="n">
-        <v>663.6464495681278</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>990.0804712831377</v>
+        <v>713.2395913281089</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
         <v>170.862691669754</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35500,19 +35500,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>655.9981329904115</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>282.4901655221295</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458546</v>
+        <v>381.181045492599</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35892,22 +35892,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1150.947247550854</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36041,13 +36041,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
@@ -36056,13 +36056,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>753.9218057523913</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36144,7 +36144,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
         <v>661.3192390158824</v>
@@ -36220,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36369,7 +36369,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>695.4268903509969</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36378,7 +36378,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
         <v>170.862691669754</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36457,10 +36457,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36597,19 +36597,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>927.2111175518125</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458546</v>
@@ -36618,7 +36618,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
         <v>661.3192390158824</v>
@@ -36694,7 +36694,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -36834,28 +36834,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081364</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>239.9071053991102</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,19 +36907,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>992.4305468772036</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -36931,10 +36931,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37004,13 +37004,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,22 +37068,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
-        <v>110.0804674982792</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
         <v>836.6766412458546</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
         <v>661.3192390158824</v>
@@ -37168,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081364</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>807.5312715220462</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>168.8387779969835</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>469.2069973599073</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37405,10 +37405,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P38" t="n">
-        <v>395.0015281256929</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37700,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37715,13 +37715,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471158</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>990.0804712831377</v>
+        <v>884.1022829978629</v>
       </c>
       <c r="P41" t="n">
-        <v>622.3470007018941</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38016,16 +38016,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -38037,10 +38037,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>388.8721808117789</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
